--- a/Semana 1/Actividad 1.xlsx
+++ b/Semana 1/Actividad 1.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gibran\Desktop\Base de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldi-\Desktop\noviembre Base de datos\noviembre-base-de-datos\Semana 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A90DB15-D8BB-4523-8F05-26B2E3AE434B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6552A220-2763-4E6E-B311-067AA743E82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -162,7 +151,7 @@
     <t>Cliente_id</t>
   </si>
   <si>
-    <t>Gibran Eduardo Farias Fabian</t>
+    <t>aldair palomeque</t>
   </si>
 </sst>
 </file>
@@ -612,7 +601,7 @@
   <dimension ref="B1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
